--- a/output/Total_time_range_data/黑龙江省/双鸭山市_学习考察.xlsx
+++ b/output/Total_time_range_data/黑龙江省/双鸭山市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,70 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>黑龙江省</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>双鸭山市</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>黑龙江省党政代表团赴新疆学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.syskfq.gov.cn/NewCMS/index/html/viewnews.jsp?jcnmlgb=2DC42B90-D653-4730-8B32-04F6D8EBCDB5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['黑龙江日报新疆阿勒泰12日电（记者 李国玉）10月10日至12日，省委书记、省人大常委会主任许勤，省委副书记、省长梁惠玲率我省党政代表团赴新疆学习考察，深入学习贯彻习近平总书记关于新疆工作重要讲话重要指示精神，认真落实党中央对口援疆决策部署，坚决扛起重大政治责任，更好助力美丽新疆建设。新疆维吾尔自治区党委书记、新疆生产建设兵团党委第一书记、第一政委马兴瑞，自治区党委副书记、自治区主席艾尔肯·吐尼亚孜，自治区人大常委会主任祖木热提·吾布力，自治区党委副书记、兵团政委李邑飞，自治区党委副书记、乌鲁木齐市委书记何忠友等参加有关活动。', '10月10日下午，黑龙江省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会在乌鲁木齐召开。马兴瑞说，在新疆深入学习宣传贯彻习近平总书记听取自治区和兵团工作汇报时重要讲话精神的重要时刻，黑龙江省党政代表团来疆考察调研，体现了黑龙江省对援疆工作的高度重视和对新疆人民的深情厚谊，我代表自治区党委、政府、兵团和全区各族干部群众，诚挚欢迎代表团一行。长期以来，黑龙江省委、省政府把援疆工作作为重要政治责任，在人才、资金、项目上给予阿勒泰地区和兵团第十师大力支持，为新疆改革发展稳定作出了积极贡献，新疆各族干部群众感恩于心、铭记于怀。当前，黑龙江正全面落实习近平总书记、党中央决策部署，把握东北全面振兴机遇，着力建设“三个基地、一个屏障、一个高地”，黑土地上展现出振兴发展的喜人气象。新疆牢记嘱托、感恩奋进，完整准确全面贯彻新时代党的治疆方略，锚定在国家全局中的战略定位，全力推进中国式现代化的新疆实践。希望两省区以此次考察对接为契机，用好援疆平台纽带，健全合作长效机制，围绕服务和融入新发展格局、推动高质量发展，发挥黑龙江装备制造、科技创新、高等教育、现代农牧业等优势，共同提升产业发展能级。深化“一带一路”建设开放合作，携手开拓国际市场，不断提高开放型经济水平。深入推进文化润疆，促进各族干部群众全方位交往交流交融，铸牢中华民族共同体意识。新疆将切实扛起主体责任，积极推动援疆重点工作和双方合作事项落地落实，谱写两省区交流合作新篇章。', '许勤代表省委、省政府对新疆维吾尔自治区和新疆生产建设兵团长期以来给予黑龙江的大力支持、给予我省援疆干部人才的关心关爱表示感谢。他说，新疆始终牢记习近平总书记殷切嘱托，坚定不移贯彻党中央决策部署，天山南北安定祥和，美丽新疆日新月异，充分证明了新时代党的治疆方略的英明正确，充分体现了中国特色社会主义制度的显著优势，充分彰显了“两个确立”的决定性意义。当前，我省正全面学习贯彻落实习近平总书记视察黑龙江期间重要讲话重要指示，牢牢把握在国家发展大局中的战略定位，扎实推进高质量发展、可持续振兴。新征程上，我们要认真学习借鉴新疆发展经验，共同贯彻落实习近平总书记重要讲话重要指示，坚决扛起对口援疆重大政治责任，紧扣新疆所需、竭尽龙江所能，深入实施产业援疆、教育援疆、人才援疆和民生援疆，不断开创对口援疆工作新局面；携手推动西部大开发与东北全面振兴战略对接，向西开放桥头堡与向北开放新高地联通互动，“八大产业集群”与“4567”现代产业体系有机衔接，加强现代农业、食品工业、文化旅游等领域务实合作，更好服务和融入构建新发展格局，加快推进高质量发展和现代化建设；以铸牢中华民族共同体意识为主线，深化人文领域协作互动，促进各民族交往交流交融，共同为祖国边疆繁荣发展、长治久安作出更大贡献。', '座谈会上，艾尔肯·吐尼亚孜、李邑飞分别介绍了自治区和兵团改革发展稳定和对口支援工作情况。梁惠玲介绍了黑龙江省经济社会发展和对口援疆工作开展情况。会后举行了省农业农村厅、省农科院、北大荒农垦集团与阿勒泰地区行署签署《农业现代化发展战略合作框架协议》和援助资金捐赠仪式。', '10月12日上午，黑龙江省党政代表团就深化对口支援工作与阿勒泰地区及兵团第十师举行座谈，许勤指出，要全面贯彻落实第三次中央新疆工作座谈会和第九次全国对口支援新疆工作会议部署，坚持全面援疆、精准援疆、长期援疆，以现代农业示范基地等重点项目为牵动，大力发展农产品加工、冰雪旅游、清洁能源等特色产业，合力培养职业教育、农技、医疗等领域急需人才，持续提升教育、卫生等公共服务水平，办好农村饮水安全、垃圾污水处理等民生实事，更好助力受援地民生改善、经济繁荣。援疆干部人才要提高政治站位，锤炼能力作风，主动担当作为，为美丽新疆建设贡献智慧力量。', '在新疆期间，我省党政代表团还考察了乌鲁木齐国际陆港区、阿勒泰职教园区、将军山国际滑雪度假区、福海县阔克阿尕什乡阿克乌提克勒村、兵团十师183团龙疆设施农业园区和现代农业产业园，出席我省援建阿勒泰天文馆开馆仪式，看望慰问援疆干部人才。', '自治区和兵团领导张柱、陈伟俊、哈丹·卡宾、薛斌、张文胜、哈增友、高继明、都红岩；省领导杨博、于洪涛、张亚中参加有关活动。']</t>
         </is>
